--- a/reconciliation/Reconciliation table (detailed version).xlsx
+++ b/reconciliation/Reconciliation table (detailed version).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobba\Documents\GitHub\openMetaAnalysis\openMetaAnalysis.github.io\reconciliation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irbazriaz/Dropbox/Projects with Dr Badgett/Rec Tables Viewpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51DD9367-EDC7-4CEA-8EF4-8B9DAB2EF445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E47A8-32D5-3245-8A8E-72D5FCB6D06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reconciliation table combined" sheetId="1" r:id="rId1"/>
@@ -24,35 +24,15 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={674E432A-6D88-4538-9272-9818FB4B3F34}</author>
-  </authors>
-  <commentList>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{674E432A-6D88-4538-9272-9818FB4B3F34}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    We discussed to include studies from the original rec table that we used as a reference (n =17) hence the shapies are 17. However, we used the RR from the forest plot (n = 6). If we go with the forest plot we will have to edit the shapies</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="151">
   <si>
     <t>Heterogeneity</t>
   </si>
@@ -1068,9 +1048,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>No subgroup differences</t>
-  </si>
-  <si>
     <t>Modulators (subgroups and meta-regressions)</t>
   </si>
   <si>
@@ -1177,6 +1154,9 @@
       <t xml:space="preserve">
 ↓: significant decrease; ↑: significant increase; ↔: no significant change</t>
     </r>
+  </si>
+  <si>
+    <t>Modulators tested but not found</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2038,6 +2018,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2063,6 +2046,15 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2072,10 +2064,16 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2087,6 +2085,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2094,19 +2095,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2140,6 +2129,10 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2153,43 +2146,37 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2198,8 +2185,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2214,6 +2204,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,44 +2260,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2312,54 +2305,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17707,9 +17672,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="SYED ARSALAN AHMED NAQVI" id="{4AB6FFD3-0750-4198-B91B-3EC3671B6546}" userId="SYED ARSALAN AHMED NAQVI" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18007,23 +17970,15 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I17" dT="2020-05-07T23:55:25.20" personId="{4AB6FFD3-0750-4198-B91B-3EC3671B6546}" id="{674E432A-6D88-4538-9272-9818FB4B3F34}">
-    <text>We discussed to include studies from the original rec table that we used as a reference (n =17) hence the shapies are 17. However, we used the RR from the forest plot (n = 6). If we go with the forest plot we will have to edit the shapies</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -18032,78 +17987,78 @@
     <col min="10" max="12" width="14.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="114"/>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="82"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="120"/>
+      <c r="B4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -18134,9 +18089,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="121"/>
+      <c r="B5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -18170,45 +18125,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="56" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="1:12" s="59" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="121"/>
+      <c r="B6" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="E6" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="54" t="s">
+      <c r="K6" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="67" t="s">
-        <v>146</v>
+      <c r="L6" s="72" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="121"/>
+      <c r="B7" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -18242,146 +18197,154 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="121"/>
+      <c r="B8" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="65">
         <v>0</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="66">
         <v>0</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="67">
         <v>0.02</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="68">
         <v>0.27</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="68">
         <v>0.11</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="68">
         <v>0.38</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="68">
         <v>0.1</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="68">
         <v>0.35</v>
       </c>
-      <c r="K8" s="124">
+      <c r="K8" s="69">
         <v>0.19</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="70">
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="50" customFormat="1" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="68" t="s">
+    <row r="9" spans="1:12" s="55" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="121"/>
+      <c r="B9" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="E9" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="55" customFormat="1" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="121"/>
+      <c r="B10" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="126"/>
+      <c r="H10" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="134">
+        <v>0</v>
+      </c>
+      <c r="J10" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="131" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" s="50" customFormat="1" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="49" t="s">
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="121"/>
+      <c r="B11" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="52">
-        <v>0</v>
-      </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="127"/>
+      <c r="C11" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="70" t="s">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="121"/>
+      <c r="B12" s="74" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="129" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="69" t="s">
-        <v>139</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>84</v>
@@ -18401,164 +18364,164 @@
       <c r="H12" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="130" t="s">
+      <c r="I12" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="130" t="s">
+      <c r="K12" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="131" t="s">
+      <c r="L12" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="121"/>
+      <c r="B13" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="133" t="s">
+      <c r="J13" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="134" t="s">
+      <c r="L13" s="51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="77" t="s">
+    <row r="14" spans="1:12" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="121"/>
+      <c r="B14" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="135" t="s">
+      <c r="I14" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="135" t="s">
+      <c r="J14" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="136" t="s">
+      <c r="L14" s="47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="28" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="1:12" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="121"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="137" t="s">
+      <c r="I15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="137" t="s">
+      <c r="J15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="138" t="s">
+      <c r="L15" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="28" customFormat="1" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="37" t="s">
+    <row r="16" spans="1:12" s="29" customFormat="1" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="139" t="s">
+      <c r="I16" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="139" t="s">
+      <c r="J16" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="139" t="s">
+      <c r="K16" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="140" t="s">
+      <c r="L16" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="83"/>
+    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="124"/>
       <c r="C17" s="26" t="s">
         <v>84</v>
       </c>
@@ -18577,252 +18540,248 @@
       <c r="H17" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="130" t="s">
+      <c r="I17" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="130" t="s">
+      <c r="K17" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="131" t="s">
+      <c r="L17" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="73"/>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="114"/>
     </row>
-    <row r="19" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="74"/>
+    <row r="19" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="115"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="s">
+    <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="113"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="102" t="s">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
-    <row r="30" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="99" t="s">
+    <row r="30" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="107"/>
     </row>
-    <row r="31" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="94"/>
+    <row r="31" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
     </row>
-    <row r="32" spans="1:12" s="46" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
+    <row r="32" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="E18:E19"/>
@@ -18839,20 +18798,23 @@
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A21:L21"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -18864,21 +18826,21 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:4" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
     </row>
-    <row r="2" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="14" t="s">
         <v>3</v>
@@ -18890,7 +18852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -18902,7 +18864,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -18914,7 +18876,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -18926,7 +18888,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -18938,7 +18900,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -18950,7 +18912,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -18962,7 +18924,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -18974,7 +18936,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -18986,7 +18948,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -18998,7 +18960,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -19010,7 +18972,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -19022,7 +18984,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -19034,7 +18996,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -19046,7 +19008,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -19058,7 +19020,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -19070,7 +19032,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -19082,7 +19044,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -19094,7 +19056,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -19106,7 +19068,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -19118,7 +19080,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -19130,7 +19092,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -19142,7 +19104,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -19154,7 +19116,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -19166,7 +19128,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -19178,7 +19140,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -19190,7 +19152,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -19202,7 +19164,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -19214,7 +19176,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -19226,7 +19188,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -19238,7 +19200,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -19250,7 +19212,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -19262,7 +19224,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -19274,7 +19236,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -19286,7 +19248,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -19298,7 +19260,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -19310,7 +19272,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -19322,7 +19284,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -19334,7 +19296,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -19346,7 +19308,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -19358,7 +19320,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -19370,7 +19332,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -19382,7 +19344,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -19394,7 +19356,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -19406,7 +19368,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -19418,7 +19380,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -19430,7 +19392,7 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -19442,7 +19404,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>47</v>
       </c>
